--- a/库存导入格式.xlsx
+++ b/库存导入格式.xlsx
@@ -1230,7 +1230,7 @@
   </sheetPr>
   <dimension ref="A1:R1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A79" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -11165,6 +11165,143 @@
     <row r="593" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="594" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="595" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="596" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="597" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="598" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="599" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="600" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="601" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="602" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="603" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="604" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="605" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="606" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="607" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="608" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="609" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="610" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="611" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="612" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="613" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="614" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="615" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="616" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="617" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="618" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="619" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="620" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="621" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="622" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="623" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="624" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="625" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="626" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="627" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="628" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="629" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="630" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="631" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="632" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="633" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="634" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="635" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="636" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="637" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="638" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="639" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="640" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="641" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="642" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="643" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="644" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="645" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="646" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="647" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="648" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="649" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="650" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="651" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="652" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="653" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="654" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="655" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="656" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="657" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="658" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="659" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="660" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="661" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="662" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="663" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="664" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="665" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="666" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="667" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="668" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="669" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="670" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="671" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="672" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="673" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="674" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="675" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="676" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="677" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="678" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="679" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="680" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="681" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="682" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="683" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="684" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="685" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="686" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="687" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="688" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="689" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="690" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="691" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="692" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="693" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="694" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="695" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="696" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="697" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="698" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="699" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="700" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="701" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="702" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="703" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="704" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="705" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="706" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="707" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="708" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="709" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="710" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="711" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="712" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="713" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="714" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="715" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="716" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="717" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="718" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="719" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="720" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="721" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="722" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="723" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="724" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="725" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="726" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="727" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="728" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="729" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="730" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="731" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="732" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1046337" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1046338" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1046339" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
